--- a/great-wisdom-backend/src/main/resources/测试数据2.xlsx
+++ b/great-wisdom-backend/src/main/resources/测试数据2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9564"/>
+    <workbookView windowWidth="18468" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,59 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>日期</t>
+    <t>年份</t>
   </si>
   <si>
-    <t>活跃用户数</t>
+    <t>考研人数</t>
   </si>
   <si>
-    <t>日增长量</t>
+    <t>保研人数</t>
   </si>
   <si>
-    <t>日注销量</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-  </si>
-  <si>
-    <t>2号</t>
-  </si>
-  <si>
-    <t>3号</t>
-  </si>
-  <si>
-    <t>4号</t>
-  </si>
-  <si>
-    <t>5号</t>
-  </si>
-  <si>
-    <t>6号</t>
-  </si>
-  <si>
-    <t>7号</t>
-  </si>
-  <si>
-    <t>8号</t>
+    <t>年级总人数</t>
   </si>
 </sst>
 </file>
@@ -80,7 +39,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -243,11 +202,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1030,7 +984,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" outlineLevelCol="3"/>
@@ -1053,115 +1007,115 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="A2">
+        <v>2016</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="A3">
+        <v>2017</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
+      <c r="A4">
+        <v>2018</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
+      <c r="A5">
+        <v>2019</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
+      <c r="A6">
+        <v>2020</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
+      <c r="A7">
+        <v>2021</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
+      <c r="A8">
+        <v>2022</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
+      <c r="A9">
+        <v>2023</v>
       </c>
       <c r="B9">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="4:4">
